--- a/data/nzd0102/nzd0102.xlsx
+++ b/data/nzd0102/nzd0102.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I311"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9970,6 +9970,204 @@
       <c r="I311" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>365.71</v>
+      </c>
+      <c r="C312" t="n">
+        <v>364.7090909090909</v>
+      </c>
+      <c r="D312" t="n">
+        <v>356.4090909090909</v>
+      </c>
+      <c r="E312" t="n">
+        <v>367.0590909090909</v>
+      </c>
+      <c r="F312" t="n">
+        <v>364.3990909090909</v>
+      </c>
+      <c r="G312" t="n">
+        <v>360.3490909090909</v>
+      </c>
+      <c r="H312" t="n">
+        <v>360.7766666666667</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>375.5533333333333</v>
+      </c>
+      <c r="C313" t="n">
+        <v>371.2345454545454</v>
+      </c>
+      <c r="D313" t="n">
+        <v>369.2945454545454</v>
+      </c>
+      <c r="E313" t="n">
+        <v>372.2445454545455</v>
+      </c>
+      <c r="F313" t="n">
+        <v>368.6845454545455</v>
+      </c>
+      <c r="G313" t="n">
+        <v>368.7745454545454</v>
+      </c>
+      <c r="H313" t="n">
+        <v>364.9944444444445</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>390.4666666666667</v>
+      </c>
+      <c r="C314" t="n">
+        <v>385.7818181818182</v>
+      </c>
+      <c r="D314" t="n">
+        <v>391.2018181818182</v>
+      </c>
+      <c r="E314" t="n">
+        <v>388.4718181818182</v>
+      </c>
+      <c r="F314" t="n">
+        <v>386.0218181818182</v>
+      </c>
+      <c r="G314" t="n">
+        <v>380.3018181818182</v>
+      </c>
+      <c r="H314" t="n">
+        <v>382.7988888888889</v>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>382.45</v>
+      </c>
+      <c r="C315" t="n">
+        <v>378.4436363636364</v>
+      </c>
+      <c r="D315" t="n">
+        <v>376.6836363636364</v>
+      </c>
+      <c r="E315" t="n">
+        <v>380.5336363636364</v>
+      </c>
+      <c r="F315" t="n">
+        <v>366.6236363636364</v>
+      </c>
+      <c r="G315" t="n">
+        <v>375.4136363636364</v>
+      </c>
+      <c r="H315" t="n">
+        <v>367.3033333333333</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>388.65</v>
+      </c>
+      <c r="C316" t="n">
+        <v>373.860909090909</v>
+      </c>
+      <c r="D316" t="n">
+        <v>374.860909090909</v>
+      </c>
+      <c r="E316" t="n">
+        <v>374.9709090909091</v>
+      </c>
+      <c r="F316" t="n">
+        <v>373.3409090909091</v>
+      </c>
+      <c r="G316" t="n">
+        <v>374.610909090909</v>
+      </c>
+      <c r="H316" t="n">
+        <v>368.4466666666667</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>375.46</v>
+      </c>
+      <c r="C317" t="n">
+        <v>371.9981818181818</v>
+      </c>
+      <c r="D317" t="n">
+        <v>353.3081818181818</v>
+      </c>
+      <c r="E317" t="n">
+        <v>368.9381818181818</v>
+      </c>
+      <c r="F317" t="n">
+        <v>368.3481818181818</v>
+      </c>
+      <c r="G317" t="n">
+        <v>368.2081818181818</v>
+      </c>
+      <c r="H317" t="n">
+        <v>365.3333333333333</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9984,7 +10182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B337"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13362,6 +13560,66 @@
       </c>
       <c r="B337" t="n">
         <v>1.08</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
@@ -13530,28 +13788,28 @@
         <v>0.0674</v>
       </c>
       <c r="I2" t="n">
-        <v>0.315318425607632</v>
+        <v>0.3516624734209893</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K2" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0336709723089379</v>
+        <v>0.04266395764204711</v>
       </c>
       <c r="M2" t="n">
-        <v>9.602784398936898</v>
+        <v>9.597880049085243</v>
       </c>
       <c r="N2" t="n">
-        <v>147.4260241727715</v>
+        <v>147.0878300009454</v>
       </c>
       <c r="O2" t="n">
-        <v>12.14191188292732</v>
+        <v>12.12797716030771</v>
       </c>
       <c r="P2" t="n">
-        <v>363.6506538643673</v>
+        <v>363.2902971373876</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -13607,28 +13865,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3399929494298446</v>
+        <v>0.3980559018911646</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K3" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03261199762470235</v>
+        <v>0.04513393543254574</v>
       </c>
       <c r="M3" t="n">
-        <v>10.66200654869414</v>
+        <v>10.72160555518111</v>
       </c>
       <c r="N3" t="n">
-        <v>177.4976751063913</v>
+        <v>177.9948190245803</v>
       </c>
       <c r="O3" t="n">
-        <v>13.32282534248615</v>
+        <v>13.34146989745059</v>
       </c>
       <c r="P3" t="n">
-        <v>352.7361003043374</v>
+        <v>352.1616700377469</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -13684,28 +13942,28 @@
         <v>0.0601</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07613997659681424</v>
+        <v>0.131417955398382</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K4" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001303633258561088</v>
+        <v>0.003940218584063571</v>
       </c>
       <c r="M4" t="n">
-        <v>12.1543040375139</v>
+        <v>12.21494711085667</v>
       </c>
       <c r="N4" t="n">
-        <v>231.4267772963675</v>
+        <v>233.2186039999911</v>
       </c>
       <c r="O4" t="n">
-        <v>15.21271761705868</v>
+        <v>15.27149645581569</v>
       </c>
       <c r="P4" t="n">
-        <v>355.8107382249843</v>
+        <v>355.2655239109702</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -13761,28 +14019,28 @@
         <v>0.063</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3984044544304245</v>
+        <v>0.4676076027309453</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K5" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02990934336272155</v>
+        <v>0.04177704528750692</v>
       </c>
       <c r="M5" t="n">
-        <v>13.01908183068726</v>
+        <v>13.0833899399968</v>
       </c>
       <c r="N5" t="n">
-        <v>265.3667856873911</v>
+        <v>265.4341987995656</v>
       </c>
       <c r="O5" t="n">
-        <v>16.29008243341301</v>
+        <v>16.29215144784646</v>
       </c>
       <c r="P5" t="n">
-        <v>350.0430951038193</v>
+        <v>349.3597024136621</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -13838,28 +14096,28 @@
         <v>0.0611</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3534683354610695</v>
+        <v>0.410891919988415</v>
       </c>
       <c r="J6" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K6" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0326641539404513</v>
+        <v>0.04464019079258241</v>
       </c>
       <c r="M6" t="n">
-        <v>11.00522357606986</v>
+        <v>11.06857255375414</v>
       </c>
       <c r="N6" t="n">
-        <v>190.2535414398872</v>
+        <v>190.5309253576052</v>
       </c>
       <c r="O6" t="n">
-        <v>13.79324260063192</v>
+        <v>13.80329400388202</v>
       </c>
       <c r="P6" t="n">
-        <v>349.5138276327008</v>
+        <v>348.9413978867789</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -13915,28 +14173,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2959566258813667</v>
+        <v>0.3436272138667105</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K7" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02568199427943474</v>
+        <v>0.03523757988318788</v>
       </c>
       <c r="M7" t="n">
-        <v>10.36192495019419</v>
+        <v>10.40026345504818</v>
       </c>
       <c r="N7" t="n">
-        <v>168.6506137274689</v>
+        <v>168.2434826258985</v>
       </c>
       <c r="O7" t="n">
-        <v>12.98655511394261</v>
+        <v>12.97087054233055</v>
       </c>
       <c r="P7" t="n">
-        <v>352.925523387512</v>
+        <v>352.4477820205378</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -13992,28 +14250,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2505649623884464</v>
+        <v>0.3095970336323745</v>
       </c>
       <c r="J8" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K8" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01483979037759908</v>
+        <v>0.02312065454396983</v>
       </c>
       <c r="M8" t="n">
-        <v>11.41980384607836</v>
+        <v>11.44402883340544</v>
       </c>
       <c r="N8" t="n">
-        <v>207.7747362284567</v>
+        <v>207.5687602932403</v>
       </c>
       <c r="O8" t="n">
-        <v>14.41439337011644</v>
+        <v>14.40724679781811</v>
       </c>
       <c r="P8" t="n">
-        <v>349.1743580129033</v>
+        <v>348.5822830164406</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -14050,7 +14308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I311"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27195,6 +27453,288 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-35.835711221242754,174.57282595608638</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-35.83628559325224,174.5733785530939</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-35.83690328255707,174.57387040353595</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-35.83735725912164,174.57457371098036</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-35.83783292314799,174.57524925509634</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-35.838282956599365,174.5759515991245</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-35.83858371640506,174.5767713375035</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-35.835655125516745,174.57291037866435</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-35.83624840547727,174.57343451970254</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-35.83682580526336,174.57397667203725</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-35.83732253416696,174.57461213534881</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-35.83780196045783,174.57527762115214</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-35.8382168380022,174.5759974882026</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-35.83854900628005,174.57679038839078</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-35.83557013648932,174.57303828450262</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-35.83616550224232,174.57355928653354</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-35.83669408163249,174.57415734450757</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-35.83721386641273,174.57473237969424</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-35.83767669746103,174.5753923788948</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-35.83812637791836,174.57606027115335</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-35.838402484899625,174.57687080744836</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-35.83561582238193,174.57296952871621</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-35.836207321712436,174.5734963495671</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-35.83678137630772,174.57403761101367</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-35.837267025353015,174.57467355768333</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-35.83781685066197,174.57526397969357</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-35.8381647378488,174.57603364783242</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-35.83853000532003,174.57680081718894</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-35.83558048942879,174.5730227036765</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-35.83623343814201,174.57345704511715</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-35.836792335963025,174.57402257870606</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-35.83730427677465,174.57463233776897</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-35.837768317918034,174.57530844228518</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-35.83817103723801,174.57602927580243</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-35.8385205962784,174.57680598139953</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-35.835655657410115,174.5729095781799</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-35.83624405360452,174.573441069149</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-35.83692192760142,174.57384482978847</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-35.83734467558838,174.5745876351023</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-35.8378043907074,174.5752753947124</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-35.83822128253076,174.57599440351615</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-35.83854621740003,174.5767919190857</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0102/nzd0102.xlsx
+++ b/data/nzd0102/nzd0102.xlsx
@@ -13633,7 +13633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13724,35 +13724,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -13811,27 +13816,28 @@
       <c r="P2" t="n">
         <v>363.2902971373876</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.56968931377048 -35.83779530908979, 174.57761409885808 -35.83252945944339)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5696893137705</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.83779530908979</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.5776140988581</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.83252945944339</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5736517063143</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.8351623842666</v>
       </c>
     </row>
@@ -13888,27 +13894,28 @@
       <c r="P3" t="n">
         <v>352.1616700377469</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.57025048340262 -35.83836398646369, 174.5781752789126 -35.83309812595214)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5702504834026</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.83836398646369</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.5781752789126</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.83309812595214</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5742128811576</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.83573105620792</v>
       </c>
     </row>
@@ -13965,27 +13972,28 @@
       <c r="P4" t="n">
         <v>355.2655239109702</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.5709309558519 -35.83904625339448, 174.5785507378817 -35.83349075757333)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5709309558519</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.83904625339448</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.5785507378817</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.83349075757333</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5747408468668</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.8362685054839</v>
       </c>
     </row>
@@ -14042,27 +14050,28 @@
       <c r="P5" t="n">
         <v>349.3597024136621</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.57185370761982 -35.83981528026875, 174.57869888186144 -35.833629011860396)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.5718537076198</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.83981528026875</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.5786988818614</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.8336290118604</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.5752762947406</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.83672214606457</v>
       </c>
     </row>
@@ -14119,27 +14128,28 @@
       <c r="P6" t="n">
         <v>348.9413978867789</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.57283716382523 -35.84046570744818, 174.57895086285092 -35.83379221475668)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.5728371638252</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.84046570744818</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.5789508628509</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.83379221475668</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.5758940133381</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.83712896110243</v>
       </c>
     </row>
@@ -14196,27 +14206,28 @@
       <c r="P7" t="n">
         <v>352.4477820205378</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.5739888946581 -35.84111077409264, 174.57901855312093 -35.8338637085551)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.5739888946581</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.84111077409264</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.5790185531209</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.8338637085551</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.5765037238895</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.83748724132387</v>
       </c>
     </row>
@@ -14273,27 +14284,28 @@
       <c r="P8" t="n">
         <v>348.5822830164406</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.57514171924956 -35.841552711031355, 174.57931235062182 -35.83395378504298)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.5751417192496</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.84155271103135</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.5793123506218</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.83395378504298</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.5772270349357</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.83775324803717</v>
       </c>
     </row>

--- a/data/nzd0102/nzd0102.xlsx
+++ b/data/nzd0102/nzd0102.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10168,6 +10168,39 @@
       <c r="I317" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>353.1066666666667</v>
+      </c>
+      <c r="C318" t="n">
+        <v>350.6763636363636</v>
+      </c>
+      <c r="D318" t="n">
+        <v>335.6263636363636</v>
+      </c>
+      <c r="E318" t="n">
+        <v>332.8163636363636</v>
+      </c>
+      <c r="F318" t="n">
+        <v>340.0263636363636</v>
+      </c>
+      <c r="G318" t="n">
+        <v>340.3463636363636</v>
+      </c>
+      <c r="H318" t="n">
+        <v>334.9055555555556</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10182,7 +10215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13620,6 +13653,16 @@
       </c>
       <c r="B343" t="n">
         <v>0.87</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -13793,28 +13836,28 @@
         <v>0.0674</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3516624734209893</v>
+        <v>0.3370421281181403</v>
       </c>
       <c r="J2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K2" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04266395764204711</v>
+        <v>0.03927727818305426</v>
       </c>
       <c r="M2" t="n">
-        <v>9.597880049085243</v>
+        <v>9.637937492617086</v>
       </c>
       <c r="N2" t="n">
-        <v>147.0878300009454</v>
+        <v>147.9182822196344</v>
       </c>
       <c r="O2" t="n">
-        <v>12.12797716030771</v>
+        <v>12.16216601677655</v>
       </c>
       <c r="P2" t="n">
-        <v>363.2902971373876</v>
+        <v>363.4370877083926</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13871,28 +13914,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3980559018911646</v>
+        <v>0.3891943075169186</v>
       </c>
       <c r="J3" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04513393543254574</v>
+        <v>0.0434485115112575</v>
       </c>
       <c r="M3" t="n">
-        <v>10.72160555518111</v>
+        <v>10.72191349910186</v>
       </c>
       <c r="N3" t="n">
-        <v>177.9948190245803</v>
+        <v>177.8326649036094</v>
       </c>
       <c r="O3" t="n">
-        <v>13.34146989745059</v>
+        <v>13.33539144170914</v>
       </c>
       <c r="P3" t="n">
-        <v>352.1616700377469</v>
+        <v>352.2505435197711</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13949,28 +13992,28 @@
         <v>0.0601</v>
       </c>
       <c r="I4" t="n">
-        <v>0.131417955398382</v>
+        <v>0.1142468267366316</v>
       </c>
       <c r="J4" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K4" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003940218584063571</v>
+        <v>0.002979241641773211</v>
       </c>
       <c r="M4" t="n">
-        <v>12.21494711085667</v>
+        <v>12.25150002664913</v>
       </c>
       <c r="N4" t="n">
-        <v>233.2186039999911</v>
+        <v>234.3136026306687</v>
       </c>
       <c r="O4" t="n">
-        <v>15.27149645581569</v>
+        <v>15.30730553136863</v>
       </c>
       <c r="P4" t="n">
-        <v>355.2655239109702</v>
+        <v>355.4373356189685</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14027,28 +14070,28 @@
         <v>0.063</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4676076027309453</v>
+        <v>0.4456347116520714</v>
       </c>
       <c r="J5" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K5" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04177704528750692</v>
+        <v>0.03796794860711161</v>
       </c>
       <c r="M5" t="n">
-        <v>13.0833899399968</v>
+        <v>13.13586174778813</v>
       </c>
       <c r="N5" t="n">
-        <v>265.4341987995656</v>
+        <v>267.5018927233857</v>
       </c>
       <c r="O5" t="n">
-        <v>16.29215144784646</v>
+        <v>16.35548509593603</v>
       </c>
       <c r="P5" t="n">
-        <v>349.3597024136621</v>
+        <v>349.5797060471751</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14105,28 +14148,28 @@
         <v>0.0611</v>
       </c>
       <c r="I6" t="n">
-        <v>0.410891919988415</v>
+        <v>0.3960554483639261</v>
       </c>
       <c r="J6" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K6" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04464019079258241</v>
+        <v>0.04162901919245021</v>
       </c>
       <c r="M6" t="n">
-        <v>11.06857255375414</v>
+        <v>11.09238217952988</v>
       </c>
       <c r="N6" t="n">
-        <v>190.5309253576052</v>
+        <v>191.2350276969073</v>
       </c>
       <c r="O6" t="n">
-        <v>13.80329400388202</v>
+        <v>13.82877535058355</v>
       </c>
       <c r="P6" t="n">
-        <v>348.9413978867789</v>
+        <v>349.0913607989925</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14183,28 +14226,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3436272138667105</v>
+        <v>0.3280632156219827</v>
       </c>
       <c r="J7" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K7" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03523757988318788</v>
+        <v>0.03217101874535833</v>
       </c>
       <c r="M7" t="n">
-        <v>10.40026345504818</v>
+        <v>10.4291386622206</v>
       </c>
       <c r="N7" t="n">
-        <v>168.2434826258985</v>
+        <v>169.2157207337104</v>
       </c>
       <c r="O7" t="n">
-        <v>12.97087054233055</v>
+        <v>13.00829430531576</v>
       </c>
       <c r="P7" t="n">
-        <v>352.4477820205378</v>
+        <v>352.6058049816604</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14261,28 +14304,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3095970336323745</v>
+        <v>0.2926504945723897</v>
       </c>
       <c r="J8" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K8" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02312065454396983</v>
+        <v>0.02071087883340983</v>
       </c>
       <c r="M8" t="n">
-        <v>11.44402883340544</v>
+        <v>11.48161210877506</v>
       </c>
       <c r="N8" t="n">
-        <v>207.5687602932403</v>
+        <v>208.5285715706927</v>
       </c>
       <c r="O8" t="n">
-        <v>14.40724679781811</v>
+        <v>14.44051839688218</v>
       </c>
       <c r="P8" t="n">
-        <v>348.5822830164406</v>
+        <v>348.7544741841583</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14320,7 +14363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27747,6 +27790,53 @@
         </is>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-35.83578304572464,174.57271786184893</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-35.83636556398045,174.57325819897716</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-35.83702824415789,174.57369900446696</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-35.837586568939514,174.57431997054033</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-35.83800901758132,174.57508792800363</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-35.83843992756271,174.575842654351</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-35.83879662217918,174.57665448234002</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0102/nzd0102.xlsx
+++ b/data/nzd0102/nzd0102.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I318"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10199,6 +10199,105 @@
         <v>334.9055555555556</v>
       </c>
       <c r="I318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>356.0766666666667</v>
+      </c>
+      <c r="C319" t="n">
+        <v>358.3363636363636</v>
+      </c>
+      <c r="D319" t="n">
+        <v>332.4463636363636</v>
+      </c>
+      <c r="E319" t="n">
+        <v>333.1563636363636</v>
+      </c>
+      <c r="F319" t="n">
+        <v>344.1963636363636</v>
+      </c>
+      <c r="G319" t="n">
+        <v>343.0163636363636</v>
+      </c>
+      <c r="H319" t="n">
+        <v>343.5688888888889</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>371.8566666666667</v>
+      </c>
+      <c r="C320" t="n">
+        <v>358.9745454545454</v>
+      </c>
+      <c r="D320" t="n">
+        <v>351.8745454545455</v>
+      </c>
+      <c r="E320" t="n">
+        <v>345.4845454545454</v>
+      </c>
+      <c r="F320" t="n">
+        <v>348.6645454545454</v>
+      </c>
+      <c r="G320" t="n">
+        <v>347.1045454545454</v>
+      </c>
+      <c r="H320" t="n">
+        <v>352.7955555555556</v>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>353.46</v>
+      </c>
+      <c r="C321" t="n">
+        <v>355.0272727272728</v>
+      </c>
+      <c r="D321" t="n">
+        <v>333.7372727272727</v>
+      </c>
+      <c r="E321" t="n">
+        <v>329.7672727272728</v>
+      </c>
+      <c r="F321" t="n">
+        <v>341.2172727272728</v>
+      </c>
+      <c r="G321" t="n">
+        <v>339.5472727272727</v>
+      </c>
+      <c r="H321" t="n">
+        <v>341.32</v>
+      </c>
+      <c r="I321" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10215,7 +10314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13663,6 +13762,36 @@
       </c>
       <c r="B344" t="n">
         <v>-0.02</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -13836,28 +13965,28 @@
         <v>0.0674</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3370421281181403</v>
+        <v>0.31121185066952</v>
       </c>
       <c r="J2" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K2" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03927727818305426</v>
+        <v>0.03397147606287787</v>
       </c>
       <c r="M2" t="n">
-        <v>9.637937492617086</v>
+        <v>9.668220479422162</v>
       </c>
       <c r="N2" t="n">
-        <v>147.9182822196344</v>
+        <v>148.4736757391607</v>
       </c>
       <c r="O2" t="n">
-        <v>12.16216601677655</v>
+        <v>12.18497746157787</v>
       </c>
       <c r="P2" t="n">
-        <v>363.4370877083926</v>
+        <v>363.6972453337247</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13914,28 +14043,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3891943075169186</v>
+        <v>0.3785521750146434</v>
       </c>
       <c r="J3" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K3" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0434485115112575</v>
+        <v>0.0420885705918751</v>
       </c>
       <c r="M3" t="n">
-        <v>10.72191349910186</v>
+        <v>10.65081978390956</v>
       </c>
       <c r="N3" t="n">
-        <v>177.8326649036094</v>
+        <v>176.1140283185333</v>
       </c>
       <c r="O3" t="n">
-        <v>13.33539144170914</v>
+        <v>13.27079606951042</v>
       </c>
       <c r="P3" t="n">
-        <v>352.2505435197711</v>
+        <v>352.3576286877762</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13992,28 +14121,28 @@
         <v>0.0601</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1142468267366316</v>
+        <v>0.07286164645386667</v>
       </c>
       <c r="J4" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K4" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002979241641773211</v>
+        <v>0.001217558717145129</v>
       </c>
       <c r="M4" t="n">
-        <v>12.25150002664913</v>
+        <v>12.31298878941574</v>
       </c>
       <c r="N4" t="n">
-        <v>234.3136026306687</v>
+        <v>236.4846214018519</v>
       </c>
       <c r="O4" t="n">
-        <v>15.30730553136863</v>
+        <v>15.37805648974707</v>
       </c>
       <c r="P4" t="n">
-        <v>355.4373356189685</v>
+        <v>355.8527080795523</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14070,28 +14199,28 @@
         <v>0.063</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4456347116520714</v>
+        <v>0.3897853948194277</v>
       </c>
       <c r="J5" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K5" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03796794860711161</v>
+        <v>0.02922575967638641</v>
       </c>
       <c r="M5" t="n">
-        <v>13.13586174778813</v>
+        <v>13.24823253426888</v>
       </c>
       <c r="N5" t="n">
-        <v>267.5018927233857</v>
+        <v>271.7851309654155</v>
       </c>
       <c r="O5" t="n">
-        <v>16.35548509593603</v>
+        <v>16.48590704102797</v>
       </c>
       <c r="P5" t="n">
-        <v>349.5797060471751</v>
+        <v>350.1406240548993</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14148,28 +14277,28 @@
         <v>0.0611</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3960554483639261</v>
+        <v>0.3636367525863554</v>
       </c>
       <c r="J6" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K6" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04162901919245021</v>
+        <v>0.03570053028264142</v>
       </c>
       <c r="M6" t="n">
-        <v>11.09238217952988</v>
+        <v>11.1109329749127</v>
       </c>
       <c r="N6" t="n">
-        <v>191.2350276969073</v>
+        <v>191.5041281237806</v>
       </c>
       <c r="O6" t="n">
-        <v>13.82877535058355</v>
+        <v>13.8385016574693</v>
       </c>
       <c r="P6" t="n">
-        <v>349.0913607989925</v>
+        <v>349.4200734894973</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14226,28 +14355,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3280632156219827</v>
+        <v>0.2893795366040892</v>
       </c>
       <c r="J7" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K7" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03217101874535833</v>
+        <v>0.0252835786796306</v>
       </c>
       <c r="M7" t="n">
-        <v>10.4291386622206</v>
+        <v>10.48031267699765</v>
       </c>
       <c r="N7" t="n">
-        <v>169.2157207337104</v>
+        <v>170.8235455541013</v>
       </c>
       <c r="O7" t="n">
-        <v>13.00829430531576</v>
+        <v>13.06994818482848</v>
       </c>
       <c r="P7" t="n">
-        <v>352.6058049816604</v>
+        <v>352.9997715308072</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14304,28 +14433,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2926504945723897</v>
+        <v>0.2689382125079368</v>
       </c>
       <c r="J8" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K8" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02071087883340983</v>
+        <v>0.01785816038812071</v>
       </c>
       <c r="M8" t="n">
-        <v>11.48161210877506</v>
+        <v>11.46578949940605</v>
       </c>
       <c r="N8" t="n">
-        <v>208.5285715706927</v>
+        <v>207.6362014052407</v>
       </c>
       <c r="O8" t="n">
-        <v>14.44051839688218</v>
+        <v>14.40958713514168</v>
       </c>
       <c r="P8" t="n">
-        <v>348.7544741841583</v>
+        <v>348.9961256596657</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14363,7 +14492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I318"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27837,6 +27966,147 @@
         </is>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-35.83576612015426,174.5727433344838</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-35.83632191062888,174.57332389632447</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-35.837047364721684,174.57367277835996</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-35.83758429209831,174.57432248996565</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-35.83797888909276,174.57511552996996</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-35.838418974801606,174.57585719651962</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-35.8387253274683,174.57669361312875</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-35.83567619228947,174.5728786737549</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-35.836318273711484,174.57332936980063</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-35.83693054772132,174.57383300633094</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-35.837501735263245,174.5744138426147</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-35.83794660621687,174.57514510563146</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-35.838386892889474,174.5758794628082</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-35.8386493968052,174.57673528832248</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-35.83578103213293,174.572720892264</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-35.83634076871519,174.57329551532885</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-35.83703960280107,174.57368342475138</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-35.837606987454464,174.57429737654306</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-35.83800041319563,174.5750958108433</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-35.838446198409166,174.57583830209683</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-35.83874383465103,174.5766834552904</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0102/nzd0102.xlsx
+++ b/data/nzd0102/nzd0102.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15341,7 +15341,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-35.8374789485668,174.57443905701734</t>
+          <t>-35.83747894856679,174.57443905701734</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -15641,7 +15641,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-35.83704450046376,174.5736767070286</t>
+          <t>-35.837044500463755,174.5736767070286</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -17223,7 +17223,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-35.83867800796342,174.57671958485355</t>
+          <t>-35.838678007963416,174.57671958485355</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -23870,7 +23870,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>-35.8372876265658,174.57465076177533</t>
+          <t>-35.83728762656579,174.57465076177533</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -25605,7 +25605,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>-35.83691255315145,174.57385768788933</t>
+          <t>-35.83691255315144,174.57385768788933</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">

--- a/data/nzd0102/nzd0102.xlsx
+++ b/data/nzd0102/nzd0102.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I321"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10300,6 +10300,39 @@
       <c r="I321" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>358.0033333333333</v>
+      </c>
+      <c r="C322" t="n">
+        <v>351.4972727272728</v>
+      </c>
+      <c r="D322" t="n">
+        <v>345.3172727272727</v>
+      </c>
+      <c r="E322" t="n">
+        <v>342.3172727272727</v>
+      </c>
+      <c r="F322" t="n">
+        <v>334.0972727272728</v>
+      </c>
+      <c r="G322" t="n">
+        <v>337.8272727272728</v>
+      </c>
+      <c r="H322" t="n">
+        <v>328.8477777777778</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10314,7 +10347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13792,6 +13825,16 @@
       </c>
       <c r="B347" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -13965,28 +14008,28 @@
         <v>0.0674</v>
       </c>
       <c r="I2" t="n">
-        <v>0.31121185066952</v>
+        <v>0.3011480614579939</v>
       </c>
       <c r="J2" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03397147606287787</v>
+        <v>0.03197443745380579</v>
       </c>
       <c r="M2" t="n">
-        <v>9.668220479422162</v>
+        <v>9.687991663133303</v>
       </c>
       <c r="N2" t="n">
-        <v>148.4736757391607</v>
+        <v>148.6146990266444</v>
       </c>
       <c r="O2" t="n">
-        <v>12.18497746157787</v>
+        <v>12.19076285663225</v>
       </c>
       <c r="P2" t="n">
-        <v>363.6972453337247</v>
+        <v>363.7988101319406</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14043,28 +14086,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3785521750146434</v>
+        <v>0.370799077396776</v>
       </c>
       <c r="J3" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K3" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0420885705918751</v>
+        <v>0.04066128766497168</v>
       </c>
       <c r="M3" t="n">
-        <v>10.65081978390956</v>
+        <v>10.6473654187736</v>
       </c>
       <c r="N3" t="n">
-        <v>176.1140283185333</v>
+        <v>175.8719406667647</v>
       </c>
       <c r="O3" t="n">
-        <v>13.27079606951042</v>
+        <v>13.2616718654461</v>
       </c>
       <c r="P3" t="n">
-        <v>352.3576286877762</v>
+        <v>352.4357880440803</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14121,28 +14164,28 @@
         <v>0.0601</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07286164645386667</v>
+        <v>0.06392483613780889</v>
       </c>
       <c r="J4" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001217558717145129</v>
+        <v>0.0009423970702242546</v>
       </c>
       <c r="M4" t="n">
-        <v>12.31298878941574</v>
+        <v>12.31033426822187</v>
       </c>
       <c r="N4" t="n">
-        <v>236.4846214018519</v>
+        <v>236.1718823107018</v>
       </c>
       <c r="O4" t="n">
-        <v>15.37805648974707</v>
+        <v>15.36788477021811</v>
       </c>
       <c r="P4" t="n">
-        <v>355.8527080795523</v>
+        <v>355.9425968039334</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14199,28 +14242,28 @@
         <v>0.063</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3897853948194277</v>
+        <v>0.3765326441731031</v>
       </c>
       <c r="J5" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K5" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02922575967638641</v>
+        <v>0.02742012691625151</v>
       </c>
       <c r="M5" t="n">
-        <v>13.24823253426888</v>
+        <v>13.26143508639612</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7851309654155</v>
+        <v>271.9507765319271</v>
       </c>
       <c r="O5" t="n">
-        <v>16.48590704102797</v>
+        <v>16.49093012937497</v>
       </c>
       <c r="P5" t="n">
-        <v>350.1406240548993</v>
+        <v>350.2739965379738</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14277,28 +14320,28 @@
         <v>0.0611</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3636367525863554</v>
+        <v>0.3454833352702231</v>
       </c>
       <c r="J6" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K6" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03570053028264142</v>
+        <v>0.03220971263138706</v>
       </c>
       <c r="M6" t="n">
-        <v>11.1109329749127</v>
+        <v>11.15399607558688</v>
       </c>
       <c r="N6" t="n">
-        <v>191.5041281237806</v>
+        <v>193.056752066976</v>
       </c>
       <c r="O6" t="n">
-        <v>13.8385016574693</v>
+        <v>13.89448639090254</v>
       </c>
       <c r="P6" t="n">
-        <v>349.4200734894973</v>
+        <v>349.6045151322551</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14355,28 +14398,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2893795366040892</v>
+        <v>0.2731260807969985</v>
       </c>
       <c r="J7" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K7" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0252835786796306</v>
+        <v>0.02251703899548441</v>
       </c>
       <c r="M7" t="n">
-        <v>10.48031267699765</v>
+        <v>10.51320237065527</v>
       </c>
       <c r="N7" t="n">
-        <v>170.8235455541013</v>
+        <v>172.0397813387777</v>
       </c>
       <c r="O7" t="n">
-        <v>13.06994818482848</v>
+        <v>13.11639361024126</v>
       </c>
       <c r="P7" t="n">
-        <v>352.9997715308072</v>
+        <v>353.1656294003909</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14433,28 +14476,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2689382125079368</v>
+        <v>0.2485000052649433</v>
       </c>
       <c r="J8" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K8" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01785816038812071</v>
+        <v>0.01521414906309038</v>
       </c>
       <c r="M8" t="n">
-        <v>11.46578949940605</v>
+        <v>11.52205752318299</v>
       </c>
       <c r="N8" t="n">
-        <v>207.6362014052407</v>
+        <v>209.5587002938097</v>
       </c>
       <c r="O8" t="n">
-        <v>14.40958713514168</v>
+        <v>14.47614245211098</v>
       </c>
       <c r="P8" t="n">
-        <v>348.9961256596657</v>
+        <v>349.2048072860436</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14492,7 +14535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I321"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28107,6 +28150,53 @@
         </is>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-35.835755140376314,174.57275985881347</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-35.83636088572712,174.57326523965293</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-35.83696997505328,174.57377892728792</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-35.83752294521079,174.57439037293068</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-35.838051855592106,174.57504868226826</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-35.83845969606681,174.57582893410262</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-35.83884647452098,174.57662712035776</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0102/nzd0102.xlsx
+++ b/data/nzd0102/nzd0102.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10333,6 +10333,39 @@
       <c r="I322" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>357.8566666666667</v>
+      </c>
+      <c r="C323" t="n">
+        <v>352.9590909090909</v>
+      </c>
+      <c r="D323" t="n">
+        <v>345.7490909090909</v>
+      </c>
+      <c r="E323" t="n">
+        <v>347.819090909091</v>
+      </c>
+      <c r="F323" t="n">
+        <v>345.8690909090909</v>
+      </c>
+      <c r="G323" t="n">
+        <v>344.9790909090909</v>
+      </c>
+      <c r="H323" t="n">
+        <v>335.5488888888889</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13835,6 +13868,16 @@
       </c>
       <c r="B348" t="n">
         <v>-0.73</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -14008,28 +14051,28 @@
         <v>0.0674</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3011480614579939</v>
+        <v>0.2910812910594335</v>
       </c>
       <c r="J2" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03197443745380579</v>
+        <v>0.03002680653923384</v>
       </c>
       <c r="M2" t="n">
-        <v>9.687991663133303</v>
+        <v>9.707064367205883</v>
       </c>
       <c r="N2" t="n">
-        <v>148.6146990266444</v>
+        <v>148.7568598758479</v>
       </c>
       <c r="O2" t="n">
-        <v>12.19076285663225</v>
+        <v>12.19659214189963</v>
       </c>
       <c r="P2" t="n">
-        <v>363.7988101319406</v>
+        <v>363.9009342949699</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14086,28 +14129,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.370799077396776</v>
+        <v>0.3641807159910574</v>
       </c>
       <c r="J3" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K3" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04066128766497168</v>
+        <v>0.03950946667194366</v>
       </c>
       <c r="M3" t="n">
-        <v>10.6473654187736</v>
+        <v>10.63850538167169</v>
       </c>
       <c r="N3" t="n">
-        <v>175.8719406667647</v>
+        <v>175.5195596636025</v>
       </c>
       <c r="O3" t="n">
-        <v>13.2616718654461</v>
+        <v>13.24837951085349</v>
       </c>
       <c r="P3" t="n">
-        <v>352.4357880440803</v>
+        <v>352.5028562716645</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14164,28 +14207,28 @@
         <v>0.0601</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06392483613780889</v>
+        <v>0.05540430798981487</v>
       </c>
       <c r="J4" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K4" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0009423970702242546</v>
+        <v>0.000711997438117451</v>
       </c>
       <c r="M4" t="n">
-        <v>12.31033426822187</v>
+        <v>12.30579142368326</v>
       </c>
       <c r="N4" t="n">
-        <v>236.1718823107018</v>
+        <v>235.8112206399373</v>
       </c>
       <c r="O4" t="n">
-        <v>15.36788477021811</v>
+        <v>15.35614602170536</v>
       </c>
       <c r="P4" t="n">
-        <v>355.9425968039334</v>
+        <v>356.0287501667161</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14242,28 +14285,28 @@
         <v>0.063</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3765326441731031</v>
+        <v>0.3674971180780317</v>
       </c>
       <c r="J5" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K5" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02742012691625151</v>
+        <v>0.02630569145231876</v>
       </c>
       <c r="M5" t="n">
-        <v>13.26143508639612</v>
+        <v>13.25539726359781</v>
       </c>
       <c r="N5" t="n">
-        <v>271.9507765319271</v>
+        <v>271.481691284051</v>
       </c>
       <c r="O5" t="n">
-        <v>16.49093012937497</v>
+        <v>16.47670146856011</v>
       </c>
       <c r="P5" t="n">
-        <v>350.2739965379738</v>
+        <v>350.3653968960716</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14320,28 +14363,28 @@
         <v>0.0611</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3454833352702231</v>
+        <v>0.336174313678394</v>
       </c>
       <c r="J6" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K6" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03220971263138706</v>
+        <v>0.03068935897906644</v>
       </c>
       <c r="M6" t="n">
-        <v>11.15399607558688</v>
+        <v>11.15506997537931</v>
       </c>
       <c r="N6" t="n">
-        <v>193.056752066976</v>
+        <v>192.928433613135</v>
       </c>
       <c r="O6" t="n">
-        <v>13.89448639090254</v>
+        <v>13.88986802000419</v>
       </c>
       <c r="P6" t="n">
-        <v>349.6045151322551</v>
+        <v>349.6995902738906</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14398,28 +14441,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2731260807969985</v>
+        <v>0.2621791942176128</v>
       </c>
       <c r="J7" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K7" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02251703899548441</v>
+        <v>0.02084262320535457</v>
       </c>
       <c r="M7" t="n">
-        <v>10.51320237065527</v>
+        <v>10.52392948719008</v>
       </c>
       <c r="N7" t="n">
-        <v>172.0397813387777</v>
+        <v>172.2496783533629</v>
       </c>
       <c r="O7" t="n">
-        <v>13.11639361024126</v>
+        <v>13.12439249464001</v>
       </c>
       <c r="P7" t="n">
-        <v>353.1656294003909</v>
+        <v>353.2779050419543</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14476,28 +14519,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2485000052649433</v>
+        <v>0.2333630672379193</v>
       </c>
       <c r="J8" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K8" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01521414906309038</v>
+        <v>0.01345566364010387</v>
       </c>
       <c r="M8" t="n">
-        <v>11.52205752318299</v>
+        <v>11.55162850531844</v>
       </c>
       <c r="N8" t="n">
-        <v>209.5587002938097</v>
+        <v>210.2597052280945</v>
       </c>
       <c r="O8" t="n">
-        <v>14.47614245211098</v>
+        <v>14.50033465917578</v>
       </c>
       <c r="P8" t="n">
-        <v>349.2048072860436</v>
+        <v>349.3601203776218</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14535,7 +14578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28197,6 +28240,53 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-35.835755976207224,174.57275860090618</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-35.83635255501588,174.5732777771997</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-35.83696737863327,174.57378248857412</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-35.8374861017515,174.57443114173086</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-35.83796680354083,174.57512660204134</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-35.83840357234528,174.57586788651892</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-35.83879132788208,174.5766573881685</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0102/nzd0102.xlsx
+++ b/data/nzd0102/nzd0102.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I323"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10364,6 +10364,105 @@
         <v>335.5488888888889</v>
       </c>
       <c r="I323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>356.72</v>
+      </c>
+      <c r="C324" t="n">
+        <v>349.0481818181818</v>
+      </c>
+      <c r="D324" t="n">
+        <v>331.8781818181818</v>
+      </c>
+      <c r="E324" t="n">
+        <v>329.1281818181818</v>
+      </c>
+      <c r="F324" t="n">
+        <v>340.4281818181818</v>
+      </c>
+      <c r="G324" t="n">
+        <v>338.1981818181818</v>
+      </c>
+      <c r="H324" t="n">
+        <v>324.2333333333333</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>354.5233333333333</v>
+      </c>
+      <c r="C325" t="n">
+        <v>348.1645454545454</v>
+      </c>
+      <c r="D325" t="n">
+        <v>330.7345454545454</v>
+      </c>
+      <c r="E325" t="n">
+        <v>335.1145454545455</v>
+      </c>
+      <c r="F325" t="n">
+        <v>344.1345454545454</v>
+      </c>
+      <c r="G325" t="n">
+        <v>342.8345454545454</v>
+      </c>
+      <c r="H325" t="n">
+        <v>328.9877777777777</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>353.3266666666667</v>
+      </c>
+      <c r="C326" t="n">
+        <v>344.2690909090909</v>
+      </c>
+      <c r="D326" t="n">
+        <v>332.2790909090909</v>
+      </c>
+      <c r="E326" t="n">
+        <v>324.2390909090909</v>
+      </c>
+      <c r="F326" t="n">
+        <v>330.2990909090909</v>
+      </c>
+      <c r="G326" t="n">
+        <v>331.449090909091</v>
+      </c>
+      <c r="H326" t="n">
+        <v>317.2588888888889</v>
+      </c>
+      <c r="I326" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10380,7 +10479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13878,6 +13977,36 @@
       </c>
       <c r="B349" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -14051,28 +14180,28 @@
         <v>0.0674</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2910812910594335</v>
+        <v>0.2556002962132742</v>
       </c>
       <c r="J2" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K2" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03002680653923384</v>
+        <v>0.02338312268612963</v>
       </c>
       <c r="M2" t="n">
-        <v>9.707064367205883</v>
+        <v>9.79389204125979</v>
       </c>
       <c r="N2" t="n">
-        <v>148.7568598758479</v>
+        <v>150.0843409675034</v>
       </c>
       <c r="O2" t="n">
-        <v>12.19659214189963</v>
+        <v>12.25089143562636</v>
       </c>
       <c r="P2" t="n">
-        <v>363.9009342949699</v>
+        <v>364.2620175807467</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14129,28 +14258,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3641807159910574</v>
+        <v>0.3327036459815736</v>
       </c>
       <c r="J3" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03950946667194366</v>
+        <v>0.03349337401353514</v>
       </c>
       <c r="M3" t="n">
-        <v>10.63850538167169</v>
+        <v>10.66906966566089</v>
       </c>
       <c r="N3" t="n">
-        <v>175.5195596636025</v>
+        <v>175.9661274618717</v>
       </c>
       <c r="O3" t="n">
-        <v>13.24837951085349</v>
+        <v>13.2652224806775</v>
       </c>
       <c r="P3" t="n">
-        <v>352.5028562716645</v>
+        <v>352.8228595804376</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14207,28 +14336,28 @@
         <v>0.0601</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05540430798981487</v>
+        <v>0.001183048246628766</v>
       </c>
       <c r="J4" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000711997438117451</v>
+        <v>3.225113318627848e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>12.30579142368326</v>
+        <v>12.43016315839522</v>
       </c>
       <c r="N4" t="n">
-        <v>235.8112206399373</v>
+        <v>240.3164205603777</v>
       </c>
       <c r="O4" t="n">
-        <v>15.35614602170536</v>
+        <v>15.50214245065429</v>
       </c>
       <c r="P4" t="n">
-        <v>356.0287501667161</v>
+        <v>356.5787089157179</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14285,28 +14414,28 @@
         <v>0.063</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3674971180780317</v>
+        <v>0.3018447955559607</v>
       </c>
       <c r="J5" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K5" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02630569145231876</v>
+        <v>0.01765994122657244</v>
       </c>
       <c r="M5" t="n">
-        <v>13.25539726359781</v>
+        <v>13.43533783034227</v>
       </c>
       <c r="N5" t="n">
-        <v>271.481691284051</v>
+        <v>278.6361568050762</v>
       </c>
       <c r="O5" t="n">
-        <v>16.47670146856011</v>
+        <v>16.69239817417127</v>
       </c>
       <c r="P5" t="n">
-        <v>350.3653968960716</v>
+        <v>351.0315865641689</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14363,28 +14492,28 @@
         <v>0.0611</v>
       </c>
       <c r="I6" t="n">
-        <v>0.336174313678394</v>
+        <v>0.2930313671497481</v>
       </c>
       <c r="J6" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K6" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03068935897906644</v>
+        <v>0.02345435783645844</v>
       </c>
       <c r="M6" t="n">
-        <v>11.15506997537931</v>
+        <v>11.2331581803481</v>
       </c>
       <c r="N6" t="n">
-        <v>192.928433613135</v>
+        <v>195.5290821781531</v>
       </c>
       <c r="O6" t="n">
-        <v>13.88986802000419</v>
+        <v>13.98317139200379</v>
       </c>
       <c r="P6" t="n">
-        <v>349.6995902738906</v>
+        <v>350.1416643157049</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14441,28 +14570,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2621791942176128</v>
+        <v>0.2148529650011038</v>
       </c>
       <c r="J7" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02084262320535457</v>
+        <v>0.01396503672332594</v>
       </c>
       <c r="M7" t="n">
-        <v>10.52392948719008</v>
+        <v>10.62550951705939</v>
       </c>
       <c r="N7" t="n">
-        <v>172.2496783533629</v>
+        <v>175.9260883691791</v>
       </c>
       <c r="O7" t="n">
-        <v>13.12439249464001</v>
+        <v>13.26371321950151</v>
       </c>
       <c r="P7" t="n">
-        <v>353.2779050419543</v>
+        <v>353.7648187697897</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14519,28 +14648,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2333630672379193</v>
+        <v>0.1632459539857963</v>
       </c>
       <c r="J8" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K8" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01345566364010387</v>
+        <v>0.006448819151012586</v>
       </c>
       <c r="M8" t="n">
-        <v>11.55162850531844</v>
+        <v>11.76911956917995</v>
       </c>
       <c r="N8" t="n">
-        <v>210.2597052280945</v>
+        <v>219.0181937987414</v>
       </c>
       <c r="O8" t="n">
-        <v>14.50033465917578</v>
+        <v>14.79926328567545</v>
       </c>
       <c r="P8" t="n">
-        <v>349.3601203776218</v>
+        <v>350.0817131156296</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14578,7 +14707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I323"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28287,6 +28416,147 @@
         </is>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-35.83576245389646,174.5727488521238</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-35.83637484277409,174.57324423457797</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-35.837050781059695,174.57366809244758</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-35.837611267184414,174.57429264082896</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-35.838006114422235,174.57509058771</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-35.838456785366915,174.5758309542623</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-35.838884448980714,174.5766062776516</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-35.83577497236119,174.572730012097</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-35.836379878500644,174.5732366559077</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-35.8370576574643,174.5736586606419</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-35.83757117895303,174.57433700023606</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>-35.83797933573271,174.57511512078466</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>-35.83842040161549,174.57585620624621</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>-35.8388453223943,174.57662775271504</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-35.83578179197887,174.57271974871114</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-35.8364020781745,174.57320324581164</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-35.8370483704916,174.5736713988274</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-35.83764400741716,174.5742564122627</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-35.83807929766012,174.57502354138728</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-35.83850974868566,174.57579419525553</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-35.8389418449974,174.57657477516685</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0102/nzd0102.xlsx
+++ b/data/nzd0102/nzd0102.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I326"/>
+  <dimension ref="A1:I328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10463,6 +10463,70 @@
         <v>317.2588888888889</v>
       </c>
       <c r="I326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>360.2633333333333</v>
+      </c>
+      <c r="C327" t="n">
+        <v>354.1045454545454</v>
+      </c>
+      <c r="D327" t="n">
+        <v>351.7145454545454</v>
+      </c>
+      <c r="E327" t="n">
+        <v>338.2345454545454</v>
+      </c>
+      <c r="F327" t="n">
+        <v>345.7445454545455</v>
+      </c>
+      <c r="G327" t="n">
+        <v>353.6045454545454</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>366.4833333333333</v>
+      </c>
+      <c r="C328" t="n">
+        <v>347.0572727272727</v>
+      </c>
+      <c r="D328" t="n">
+        <v>343.3972727272728</v>
+      </c>
+      <c r="E328" t="n">
+        <v>348.1572727272728</v>
+      </c>
+      <c r="F328" t="n">
+        <v>348.8772727272727</v>
+      </c>
+      <c r="G328" t="n">
+        <v>348.8972727272728</v>
+      </c>
+      <c r="H328" t="n">
+        <v>341.3777777777778</v>
+      </c>
+      <c r="I328" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10479,7 +10543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14007,6 +14071,26 @@
       </c>
       <c r="B352" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -14707,7 +14791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I326"/>
+  <dimension ref="A1:I328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28557,6 +28641,96 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-35.83574226098004,174.57277924201787</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-35.83634602721888,174.57328760139495</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-35.836931509763815,174.57383168678192</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-35.83755028558164,174.5743601196543</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-35.83796770338904,174.5751257776535</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-35.83833588428209,174.57591486503196</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-35.835706814130546,174.57283258868063</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-35.83638618870057,174.5732271591775</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-35.83698151955532,174.57376309268207</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-35.83748383708372,174.57443364767704</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-35.837945069249685,174.57514651370917</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-35.83837282450251,174.5758892268945</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-35.838743359170046,174.5766837162626</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0102/nzd0102.xlsx
+++ b/data/nzd0102/nzd0102.xlsx
@@ -14264,28 +14264,28 @@
         <v>0.0674</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2556002962132742</v>
+        <v>0.2449338541737245</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K2" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02338312268612963</v>
+        <v>0.02176791655586907</v>
       </c>
       <c r="M2" t="n">
-        <v>9.79389204125979</v>
+        <v>9.779960633818913</v>
       </c>
       <c r="N2" t="n">
-        <v>150.0843409675034</v>
+        <v>149.4625241957677</v>
       </c>
       <c r="O2" t="n">
-        <v>12.25089143562636</v>
+        <v>12.2254866649867</v>
       </c>
       <c r="P2" t="n">
-        <v>364.2620175807467</v>
+        <v>364.371272864253</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14342,28 +14342,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3327036459815736</v>
+        <v>0.3173480397420757</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K3" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03349337401353514</v>
+        <v>0.03085669655728884</v>
       </c>
       <c r="M3" t="n">
-        <v>10.66906966566089</v>
+        <v>10.66318324849789</v>
       </c>
       <c r="N3" t="n">
-        <v>175.9661274618717</v>
+        <v>175.6229822629472</v>
       </c>
       <c r="O3" t="n">
-        <v>13.2652224806775</v>
+        <v>13.25228215300849</v>
       </c>
       <c r="P3" t="n">
-        <v>352.8228595804376</v>
+        <v>352.9800375259591</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14420,28 +14420,28 @@
         <v>0.0601</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001183048246628766</v>
+        <v>-0.01137780570043767</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K4" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L4" t="n">
-        <v>3.225113318627848e-07</v>
+        <v>3.018972545232312e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>12.43016315839522</v>
+        <v>12.39861389621687</v>
       </c>
       <c r="N4" t="n">
-        <v>240.3164205603777</v>
+        <v>239.2774403911209</v>
       </c>
       <c r="O4" t="n">
-        <v>15.50214245065429</v>
+        <v>15.46859529469696</v>
       </c>
       <c r="P4" t="n">
-        <v>356.5787089157179</v>
+        <v>356.7070173775298</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14498,28 +14498,28 @@
         <v>0.063</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3018447955559607</v>
+        <v>0.2794553790171029</v>
       </c>
       <c r="J5" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K5" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01765994122657244</v>
+        <v>0.01530189496845158</v>
       </c>
       <c r="M5" t="n">
-        <v>13.43533783034227</v>
+        <v>13.44925905727951</v>
       </c>
       <c r="N5" t="n">
-        <v>278.6361568050762</v>
+        <v>278.5421129989691</v>
       </c>
       <c r="O5" t="n">
-        <v>16.69239817417127</v>
+        <v>16.68958097134164</v>
       </c>
       <c r="P5" t="n">
-        <v>351.0315865641689</v>
+        <v>351.2602540712152</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14576,28 +14576,28 @@
         <v>0.0611</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2930313671497481</v>
+        <v>0.2782092266772457</v>
       </c>
       <c r="J6" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K6" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02345435783645844</v>
+        <v>0.02142019264983597</v>
       </c>
       <c r="M6" t="n">
-        <v>11.2331581803481</v>
+        <v>11.2196738315646</v>
       </c>
       <c r="N6" t="n">
-        <v>195.5290821781531</v>
+        <v>194.8962622946783</v>
       </c>
       <c r="O6" t="n">
-        <v>13.98317139200379</v>
+        <v>13.96052514394349</v>
       </c>
       <c r="P6" t="n">
-        <v>350.1416643157049</v>
+        <v>350.2945360755368</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14654,28 +14654,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2148529650011038</v>
+        <v>0.2036064937622152</v>
       </c>
       <c r="J7" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K7" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01396503672332594</v>
+        <v>0.01270983525035041</v>
       </c>
       <c r="M7" t="n">
-        <v>10.62550951705939</v>
+        <v>10.60228889062065</v>
       </c>
       <c r="N7" t="n">
-        <v>175.9260883691791</v>
+        <v>175.17528596428</v>
       </c>
       <c r="O7" t="n">
-        <v>13.26371321950151</v>
+        <v>13.23538008386159</v>
       </c>
       <c r="P7" t="n">
-        <v>353.7648187697897</v>
+        <v>353.8812986657558</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14732,28 +14732,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1632459539857963</v>
+        <v>0.153729324240918</v>
       </c>
       <c r="J8" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K8" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006448819151012586</v>
+        <v>0.005752655582505706</v>
       </c>
       <c r="M8" t="n">
-        <v>11.76911956917995</v>
+        <v>11.77665473810361</v>
       </c>
       <c r="N8" t="n">
-        <v>219.0181937987414</v>
+        <v>218.8253307824114</v>
       </c>
       <c r="O8" t="n">
-        <v>14.79926328567545</v>
+        <v>14.79274588379086</v>
       </c>
       <c r="P8" t="n">
-        <v>350.0817131156296</v>
+        <v>350.1803191761119</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">

--- a/data/nzd0102/nzd0102.xlsx
+++ b/data/nzd0102/nzd0102.xlsx
@@ -14255,13 +14255,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0572</v>
+        <v>0.0604</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0674</v>
+        <v>0.0764</v>
       </c>
       <c r="I2" t="n">
         <v>0.2449617243699201</v>
@@ -14333,13 +14333,13 @@
         <v>0.1669891964522805</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0513</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0611</v>
+        <v>0.0771</v>
       </c>
       <c r="I3" t="n">
         <v>0.3173545648477447</v>
@@ -14411,13 +14411,13 @@
         <v>0.3339783929072328</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0489</v>
+        <v>0.0566</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0601</v>
+        <v>0.0675</v>
       </c>
       <c r="I4" t="n">
         <v>-0.01136455335031832</v>
@@ -14492,10 +14492,10 @@
         <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0507</v>
+        <v>0.0516</v>
       </c>
       <c r="H5" t="n">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
       <c r="I5" t="n">
         <v>0.2794733310135935</v>
@@ -14567,13 +14567,13 @@
         <v>0.6670226730324522</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0495</v>
+        <v>0.0443</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0611</v>
+        <v>0.0612</v>
       </c>
       <c r="I6" t="n">
         <v>0.2782232322870495</v>
@@ -14645,13 +14645,13 @@
         <v>0.8330108035458148</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0509</v>
+        <v>0.0528</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06519999999999999</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>0.2036175043236609</v>
@@ -14723,13 +14723,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04</v>
+        <v>0.0542</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0469</v>
+        <v>0.0819</v>
       </c>
       <c r="I8" t="n">
         <v>0.1537771585969984</v>

--- a/data/nzd0102/nzd0102.xlsx
+++ b/data/nzd0102/nzd0102.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:I330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11286,6 +11286,39 @@
       <c r="I329" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>360.62</v>
+      </c>
+      <c r="C330" t="n">
+        <v>351.77</v>
+      </c>
+      <c r="D330" t="n">
+        <v>343.03</v>
+      </c>
+      <c r="E330" t="n">
+        <v>341.27</v>
+      </c>
+      <c r="F330" t="n">
+        <v>343.86</v>
+      </c>
+      <c r="G330" t="n">
+        <v>345.65</v>
+      </c>
+      <c r="H330" t="n">
+        <v>337</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11300,7 +11333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B355"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14858,6 +14891,16 @@
       </c>
       <c r="B355" t="n">
         <v>0.11</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -15031,28 +15074,28 @@
         <v>0.0764</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2620367765127044</v>
+        <v>0.2559363546165582</v>
       </c>
       <c r="J2" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K2" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05371746509767539</v>
+        <v>0.05146794707786129</v>
       </c>
       <c r="M2" t="n">
-        <v>6.408419256682733</v>
+        <v>6.419753537082356</v>
       </c>
       <c r="N2" t="n">
-        <v>65.21152738793042</v>
+        <v>65.31671808325399</v>
       </c>
       <c r="O2" t="n">
-        <v>8.075365464666625</v>
+        <v>8.081875901252999</v>
       </c>
       <c r="P2" t="n">
-        <v>363.7875173380729</v>
+        <v>363.8509547673789</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15103,34 +15146,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.0633</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0771</v>
+        <v>0.0772</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3388653925109594</v>
+        <v>0.332956571830804</v>
       </c>
       <c r="J3" t="n">
+        <v>329</v>
+      </c>
+      <c r="K3" t="n">
         <v>328</v>
       </c>
-      <c r="K3" t="n">
-        <v>327</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.05882289520784822</v>
+        <v>0.05710549245316998</v>
       </c>
       <c r="M3" t="n">
-        <v>8.179278920354355</v>
+        <v>8.180881504053682</v>
       </c>
       <c r="N3" t="n">
-        <v>99.33465394779775</v>
+        <v>99.31750874603271</v>
       </c>
       <c r="O3" t="n">
-        <v>9.966677176862795</v>
+        <v>9.965817013473242</v>
       </c>
       <c r="P3" t="n">
-        <v>352.6176136600928</v>
+        <v>352.6789951979936</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15184,31 +15227,31 @@
         <v>0.0566</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0675</v>
+        <v>0.0673</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04053222813855988</v>
+        <v>0.03190446351054063</v>
       </c>
       <c r="J4" t="n">
+        <v>329</v>
+      </c>
+      <c r="K4" t="n">
         <v>328</v>
       </c>
-      <c r="K4" t="n">
-        <v>327</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.0006576259681478902</v>
+        <v>0.0004084103156675178</v>
       </c>
       <c r="M4" t="n">
-        <v>9.574479869625465</v>
+        <v>9.586023633993753</v>
       </c>
       <c r="N4" t="n">
-        <v>134.6173297383315</v>
+        <v>134.8145628160154</v>
       </c>
       <c r="O4" t="n">
-        <v>11.60247084626079</v>
+        <v>11.61096735057056</v>
       </c>
       <c r="P4" t="n">
-        <v>356.1534090733424</v>
+        <v>356.2432229140082</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15259,34 +15302,34 @@
         <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0516</v>
+        <v>0.0517</v>
       </c>
       <c r="H5" t="n">
         <v>0.0641</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2947353547598067</v>
+        <v>0.2842064820385592</v>
       </c>
       <c r="J5" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K5" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02910613500901271</v>
+        <v>0.02714025120581087</v>
       </c>
       <c r="M5" t="n">
-        <v>10.02729696033403</v>
+        <v>10.04603034308866</v>
       </c>
       <c r="N5" t="n">
-        <v>156.6481120128695</v>
+        <v>157.0773938481016</v>
       </c>
       <c r="O5" t="n">
-        <v>12.51591434985353</v>
+        <v>12.53305205638681</v>
       </c>
       <c r="P5" t="n">
-        <v>350.8623714847416</v>
+        <v>350.9718936120096</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15343,28 +15386,28 @@
         <v>0.0611</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2727114156568679</v>
+        <v>0.2642888944242902</v>
       </c>
       <c r="J6" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K6" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04053790664593782</v>
+        <v>0.03818572744582993</v>
       </c>
       <c r="M6" t="n">
-        <v>7.744968462212873</v>
+        <v>7.755822916065289</v>
       </c>
       <c r="N6" t="n">
-        <v>94.49673579300216</v>
+        <v>94.78371864219901</v>
       </c>
       <c r="O6" t="n">
-        <v>9.720943153470355</v>
+        <v>9.735693023210983</v>
       </c>
       <c r="P6" t="n">
-        <v>350.5004106839543</v>
+        <v>350.5884330144497</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15415,34 +15458,34 @@
         <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0527</v>
+        <v>0.0528</v>
       </c>
       <c r="H7" t="n">
         <v>0.07240000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.216204608638825</v>
+        <v>0.2078352786686486</v>
       </c>
       <c r="J7" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K7" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02951240666594501</v>
+        <v>0.02732568464805563</v>
       </c>
       <c r="M7" t="n">
-        <v>7.140478155602372</v>
+        <v>7.147808067493183</v>
       </c>
       <c r="N7" t="n">
-        <v>82.51994384866643</v>
+        <v>82.83630110721185</v>
       </c>
       <c r="O7" t="n">
-        <v>9.084048868685507</v>
+        <v>9.101445001054055</v>
       </c>
       <c r="P7" t="n">
-        <v>353.6857054740523</v>
+        <v>353.7731719117515</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15499,28 +15542,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1114752066286768</v>
+        <v>0.1012614798619511</v>
       </c>
       <c r="J8" t="n">
+        <v>329</v>
+      </c>
+      <c r="K8" t="n">
         <v>328</v>
       </c>
-      <c r="K8" t="n">
-        <v>327</v>
-      </c>
       <c r="L8" t="n">
-        <v>0.005688288102816963</v>
+        <v>0.004695408924960787</v>
       </c>
       <c r="M8" t="n">
-        <v>8.458807750416431</v>
+        <v>8.479715496462475</v>
       </c>
       <c r="N8" t="n">
-        <v>116.5974059878522</v>
+        <v>117.0878666347458</v>
       </c>
       <c r="O8" t="n">
-        <v>10.79802787493403</v>
+        <v>10.820714700737</v>
       </c>
       <c r="P8" t="n">
-        <v>350.8199827089101</v>
+        <v>350.9266094067315</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15558,7 +15601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:I330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30993,6 +31036,53 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-35.83574022839067,174.5727823010186</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-35.836359331490044,174.57326757874768</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-35.83698372787841,174.57376006371337</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-35.83752995837273,174.57438261257317</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-35.83798131933949,174.57511330352042</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-35.83839830740166,174.57587154062614</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-35.83877938599582,174.5766639425921</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
